--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -5,22 +5,22 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\LendingClubCaseStudy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\LendingClubCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37A2A1-6356-4BB6-9464-B932997FEE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E1FCD-0099-4D31-9CF6-2AAD2A6B8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="330" windowWidth="23985" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14190" yWindow="2130" windowWidth="24975" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$J$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$B$2:$K$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
     <definedName name="behav">#REF!</definedName>
-    <definedName name="data_dict">LoanStats!$A$1:$B$116</definedName>
+    <definedName name="data_dict">LoanStats!$B$2:$C$117</definedName>
     <definedName name="dropped">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
   <si>
     <t>id</t>
   </si>
@@ -830,13 +830,34 @@
   </si>
   <si>
     <t>Zero Value</t>
+  </si>
+  <si>
+    <t>Retained</t>
+  </si>
+  <si>
+    <t>Type Analysis</t>
+  </si>
+  <si>
+    <t>Unordered Categorical Variable</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>More granular than Grade. Not Needed in Analysis</t>
+  </si>
+  <si>
+    <t>Ordered Categorical Variable</t>
+  </si>
+  <si>
+    <t>Converted to True and False in transformation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,8 +1024,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,13 +1220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1462,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1439,57 +1473,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -1917,1669 +1977,1933 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J118"/>
+  <dimension ref="B1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="29" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="9"/>
-    <col min="8" max="8" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="2" style="13" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="13"/>
+    <col min="9" max="9" width="25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="D4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="F5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="F28" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="25"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="25"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="25"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="25"/>
+    </row>
+    <row r="61" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="25"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="25"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="25"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="25"/>
+    </row>
+    <row r="72" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="25"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="25"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="25"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="25"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="25"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="25"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="25"/>
+    </row>
+    <row r="84" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="F87" s="8"/>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="F88" s="8"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G89" s="25"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G90" s="25"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="F91" s="8"/>
+      <c r="G91" s="25"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="F92" s="8"/>
+      <c r="G92" s="25"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="25"/>
+    </row>
+    <row r="94" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="25"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="25"/>
+    </row>
+    <row r="97" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" s="25"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="F98" s="8"/>
+      <c r="G98" s="25"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="25"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="25"/>
+    </row>
+    <row r="102" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="25"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="25"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="25"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="25"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="25"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="25"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="25"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="25"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="25"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="25"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="25"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="F115" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G115" s="25"/>
+    </row>
+    <row r="116" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="26"/>
+    </row>
+    <row r="117" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="E73" s="20"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="21" t="s">
+      <c r="F117" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G117" s="25"/>
+    </row>
+    <row r="119" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C119" s="22" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-    <sortCondition ref="A2:A101"/>
+  <autoFilter ref="B2:K117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C102">
+    <sortCondition ref="B3:B102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" r:id="rId1"/>

--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\LendingClubCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E1FCD-0099-4D31-9CF6-2AAD2A6B8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07CEF1-E253-43D4-9B3D-5415AB260631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="2130" windowWidth="24975" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="28215" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$B$2:$K$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$I$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
     <definedName name="behav">#REF!</definedName>
-    <definedName name="data_dict">LoanStats!$B$2:$C$117</definedName>
+    <definedName name="data_dict">LoanStats!$A$1:$B$116</definedName>
     <definedName name="dropped">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="266">
   <si>
     <t>id</t>
   </si>
@@ -841,16 +841,10 @@
     <t>Unordered Categorical Variable</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>More granular than Grade. Not Needed in Analysis</t>
   </si>
   <si>
     <t>Ordered Categorical Variable</t>
-  </si>
-  <si>
-    <t>Converted to True and False in transformation</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1456,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1527,18 +1521,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,9 +1529,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -1977,1933 +1956,1810 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K119"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="23" customWidth="1"/>
-    <col min="4" max="5" width="23.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="13"/>
-    <col min="9" max="9" width="25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="23.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="13"/>
+    <col min="7" max="7" width="25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>49</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="D18" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>195</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>92</v>
       </c>
+      <c r="C41" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="D88" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="25"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E89" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D96" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="25"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="25"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="25"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="25"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="25"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="25"/>
-    </row>
-    <row r="61" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="25"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="25"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="25"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="25"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="25"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="25"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="25"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="25"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="25"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="25"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="25"/>
-    </row>
-    <row r="72" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="25"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="25"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="25"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="25"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="25"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="25"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="25"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="25"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="25"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="25"/>
-    </row>
-    <row r="84" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E84" s="8" t="s">
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="25"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="25"/>
-    </row>
-    <row r="87" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="25"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E88" s="8" t="s">
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="D114" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G89" s="25"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G90" s="25"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="25"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="25"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="25"/>
-    </row>
-    <row r="94" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="25"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G95" s="25"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="25"/>
-    </row>
-    <row r="97" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G97" s="25"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="25"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="25"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="25"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="25"/>
-    </row>
-    <row r="102" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="25"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="25"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="25"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="25"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="25"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="25"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="25"/>
-    </row>
-    <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="25"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="25"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="25"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="25"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="25"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="25"/>
-    </row>
-    <row r="115" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B115" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G115" s="25"/>
-    </row>
-    <row r="116" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B116" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="26"/>
-    </row>
-    <row r="117" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G117" s="25"/>
-    </row>
-    <row r="119" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C119" s="22" t="s">
+    </row>
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="22" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C102">
-    <sortCondition ref="B3:B102"/>
+  <autoFilter ref="A1:I116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
